--- a/data/technology_patents/files/epo_total_c.xlsx
+++ b/data/technology_patents/files/epo_total_c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Coding/dashboard_seminar20/data/technology_patents/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A17616-4709-2F4E-8120-0F121C9C5631}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89867AA9-10CD-DC4E-B191-9240FF97AAD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="2160" windowWidth="27640" windowHeight="16940" xr2:uid="{1B05DA9E-EA87-D14F-80CE-ED85B000D229}"/>
   </bookViews>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085F4521-4001-0B4D-92FB-C61E1CD7880B}">
   <dimension ref="A1:C1960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2032" workbookViewId="0">
-      <selection activeCell="A955" sqref="A955"/>
+    <sheetView tabSelected="1" topLeftCell="A688" workbookViewId="0">
+      <selection activeCell="C744" sqref="C744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8883,9 +8883,6 @@
       <c r="B743">
         <v>2000</v>
       </c>
-      <c r="C743" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
@@ -8894,9 +8891,6 @@
       <c r="B744">
         <v>2001</v>
       </c>
-      <c r="C744" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
@@ -8982,9 +8976,6 @@
       <c r="B752">
         <v>2009</v>
       </c>
-      <c r="C752" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
@@ -9048,9 +9039,6 @@
       <c r="B758">
         <v>2015</v>
       </c>
-      <c r="C758" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
@@ -9059,9 +9047,6 @@
       <c r="B759">
         <v>2016</v>
       </c>
-      <c r="C759" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
@@ -9070,9 +9055,6 @@
       <c r="B760">
         <v>2017</v>
       </c>
-      <c r="C760" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
@@ -9169,9 +9151,6 @@
       <c r="B769">
         <v>2007</v>
       </c>
-      <c r="C769" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
@@ -9257,9 +9236,6 @@
       <c r="B777">
         <v>2015</v>
       </c>
-      <c r="C777" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
@@ -9268,9 +9244,6 @@
       <c r="B778">
         <v>2016</v>
       </c>
-      <c r="C778" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
@@ -9279,9 +9252,6 @@
       <c r="B779">
         <v>2017</v>
       </c>
-      <c r="C779" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
@@ -9598,9 +9568,6 @@
       <c r="B808">
         <v>2007</v>
       </c>
-      <c r="C808" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
@@ -9609,9 +9576,6 @@
       <c r="B809">
         <v>2008</v>
       </c>
-      <c r="C809" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
@@ -9686,9 +9650,6 @@
       <c r="B816">
         <v>2015</v>
       </c>
-      <c r="C816" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
@@ -9708,9 +9669,6 @@
       <c r="B818">
         <v>2017</v>
       </c>
-      <c r="C818" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
@@ -9895,9 +9853,6 @@
       <c r="B835">
         <v>2015</v>
       </c>
-      <c r="C835" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
@@ -9917,9 +9872,6 @@
       <c r="B837">
         <v>2017</v>
       </c>
-      <c r="C837" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
@@ -9972,9 +9924,6 @@
       <c r="B842">
         <v>2003</v>
       </c>
-      <c r="C842" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
@@ -10016,9 +9965,6 @@
       <c r="B846">
         <v>2007</v>
       </c>
-      <c r="C846" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
@@ -10049,9 +9995,6 @@
       <c r="B849">
         <v>2010</v>
       </c>
-      <c r="C849" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
@@ -10104,9 +10047,6 @@
       <c r="B854">
         <v>2015</v>
       </c>
-      <c r="C854" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
@@ -10126,9 +10066,6 @@
       <c r="B856">
         <v>2017</v>
       </c>
-      <c r="C856" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
@@ -10137,9 +10074,6 @@
       <c r="B857">
         <v>1999</v>
       </c>
-      <c r="C857" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
@@ -10203,9 +10137,6 @@
       <c r="B863">
         <v>2005</v>
       </c>
-      <c r="C863" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
@@ -10247,9 +10178,6 @@
       <c r="B867">
         <v>2009</v>
       </c>
-      <c r="C867" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
@@ -10313,9 +10241,6 @@
       <c r="B873">
         <v>2015</v>
       </c>
-      <c r="C873" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
@@ -10324,9 +10249,6 @@
       <c r="B874">
         <v>2016</v>
       </c>
-      <c r="C874" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
@@ -10335,9 +10257,6 @@
       <c r="B875">
         <v>2017</v>
       </c>
-      <c r="C875" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
@@ -10830,9 +10749,6 @@
       <c r="B920">
         <v>2003</v>
       </c>
-      <c r="C920" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
@@ -10863,9 +10779,6 @@
       <c r="B923">
         <v>2006</v>
       </c>
-      <c r="C923" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
@@ -10874,9 +10787,6 @@
       <c r="B924">
         <v>2007</v>
       </c>
-      <c r="C924" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
@@ -10962,9 +10872,6 @@
       <c r="B932">
         <v>2015</v>
       </c>
-      <c r="C932" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
@@ -10984,9 +10891,6 @@
       <c r="B934">
         <v>2017</v>
       </c>
-      <c r="C934" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
@@ -11831,9 +11735,6 @@
       <c r="B1011">
         <v>2015</v>
       </c>
-      <c r="C1011" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1012" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1012" t="s">
@@ -11853,9 +11754,6 @@
       <c r="B1013">
         <v>2017</v>
       </c>
-      <c r="C1013" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1014" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1014" t="s">
@@ -12084,9 +11982,6 @@
       <c r="B1034">
         <v>1999</v>
       </c>
-      <c r="C1034" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1035" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
@@ -12095,9 +11990,6 @@
       <c r="B1035">
         <v>2000</v>
       </c>
-      <c r="C1035" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1036" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1036" t="s">
@@ -12106,9 +11998,6 @@
       <c r="B1036">
         <v>2001</v>
       </c>
-      <c r="C1036" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1037" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1037" t="s">
@@ -12117,9 +12006,6 @@
       <c r="B1037">
         <v>2002</v>
       </c>
-      <c r="C1037" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1038" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
@@ -12128,9 +12014,6 @@
       <c r="B1038">
         <v>2003</v>
       </c>
-      <c r="C1038" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1039" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
@@ -12139,9 +12022,6 @@
       <c r="B1039">
         <v>2004</v>
       </c>
-      <c r="C1039" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1040" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
@@ -12150,9 +12030,6 @@
       <c r="B1040">
         <v>2005</v>
       </c>
-      <c r="C1040" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1041" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
@@ -12161,9 +12038,6 @@
       <c r="B1041">
         <v>2006</v>
       </c>
-      <c r="C1041" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
@@ -12172,9 +12046,6 @@
       <c r="B1042">
         <v>2007</v>
       </c>
-      <c r="C1042" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
@@ -12183,9 +12054,6 @@
       <c r="B1043">
         <v>2008</v>
       </c>
-      <c r="C1043" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
@@ -12194,9 +12062,6 @@
       <c r="B1044">
         <v>2009</v>
       </c>
-      <c r="C1044" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
@@ -12205,9 +12070,6 @@
       <c r="B1045">
         <v>2010</v>
       </c>
-      <c r="C1045" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
@@ -12227,9 +12089,6 @@
       <c r="B1047">
         <v>2012</v>
       </c>
-      <c r="C1047" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
@@ -12238,9 +12097,6 @@
       <c r="B1048">
         <v>2013</v>
       </c>
-      <c r="C1048" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
@@ -12249,9 +12105,6 @@
       <c r="B1049">
         <v>2014</v>
       </c>
-      <c r="C1049" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
@@ -12260,9 +12113,6 @@
       <c r="B1050">
         <v>2015</v>
       </c>
-      <c r="C1050" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
@@ -12271,9 +12121,6 @@
       <c r="B1051">
         <v>2016</v>
       </c>
-      <c r="C1051" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
@@ -12282,9 +12129,6 @@
       <c r="B1052">
         <v>2017</v>
       </c>
-      <c r="C1052" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
@@ -12326,9 +12170,6 @@
       <c r="B1056">
         <v>2002</v>
       </c>
-      <c r="C1056" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
@@ -12359,9 +12200,6 @@
       <c r="B1059">
         <v>2005</v>
       </c>
-      <c r="C1059" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
@@ -12370,9 +12208,6 @@
       <c r="B1060">
         <v>2006</v>
       </c>
-      <c r="C1060" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
@@ -12469,9 +12304,6 @@
       <c r="B1069">
         <v>2015</v>
       </c>
-      <c r="C1069" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
@@ -12480,9 +12312,6 @@
       <c r="B1070">
         <v>2016</v>
       </c>
-      <c r="C1070" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
@@ -12491,9 +12320,6 @@
       <c r="B1071">
         <v>2017</v>
       </c>
-      <c r="C1071" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
@@ -12678,9 +12504,6 @@
       <c r="B1088">
         <v>2015</v>
       </c>
-      <c r="C1088" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
@@ -12700,9 +12523,6 @@
       <c r="B1090">
         <v>2017</v>
       </c>
-      <c r="C1090" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1091" t="s">
@@ -12766,9 +12586,6 @@
       <c r="B1096">
         <v>2004</v>
       </c>
-      <c r="C1096" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1097" t="s">
@@ -12799,9 +12616,6 @@
       <c r="B1099">
         <v>2007</v>
       </c>
-      <c r="C1099" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1100" t="s">
@@ -12821,9 +12635,6 @@
       <c r="B1101">
         <v>2009</v>
       </c>
-      <c r="C1101" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
@@ -12832,9 +12643,6 @@
       <c r="B1102">
         <v>2010</v>
       </c>
-      <c r="C1102" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
@@ -12865,9 +12673,6 @@
       <c r="B1105">
         <v>2013</v>
       </c>
-      <c r="C1105" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1106" t="s">
@@ -12876,9 +12681,6 @@
       <c r="B1106">
         <v>2014</v>
       </c>
-      <c r="C1106" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
@@ -12887,9 +12689,6 @@
       <c r="B1107">
         <v>2015</v>
       </c>
-      <c r="C1107" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
@@ -12898,9 +12697,6 @@
       <c r="B1108">
         <v>2016</v>
       </c>
-      <c r="C1108" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1109" t="s">
@@ -12909,9 +12705,6 @@
       <c r="B1109">
         <v>2017</v>
       </c>
-      <c r="C1109" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
@@ -13030,9 +12823,6 @@
       <c r="B1120">
         <v>2009</v>
       </c>
-      <c r="C1120" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1121" t="s">
@@ -13052,9 +12842,6 @@
       <c r="B1122">
         <v>2011</v>
       </c>
-      <c r="C1122" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1123" t="s">
@@ -13096,9 +12883,6 @@
       <c r="B1126">
         <v>2015</v>
       </c>
-      <c r="C1126" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1127" t="s">
@@ -13118,9 +12902,6 @@
       <c r="B1128">
         <v>2017</v>
       </c>
-      <c r="C1128" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1129" t="s">
@@ -13129,9 +12910,6 @@
       <c r="B1129">
         <v>1999</v>
       </c>
-      <c r="C1129" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1130" t="s">
@@ -13140,9 +12918,6 @@
       <c r="B1130">
         <v>2000</v>
       </c>
-      <c r="C1130" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1131" t="s">
@@ -13162,9 +12937,6 @@
       <c r="B1132">
         <v>2002</v>
       </c>
-      <c r="C1132" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1133" t="s">
@@ -13173,9 +12945,6 @@
       <c r="B1133">
         <v>2003</v>
       </c>
-      <c r="C1133" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1134" t="s">
@@ -13195,9 +12964,6 @@
       <c r="B1135">
         <v>2005</v>
       </c>
-      <c r="C1135" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1136" t="s">
@@ -13217,9 +12983,6 @@
       <c r="B1137">
         <v>2007</v>
       </c>
-      <c r="C1137" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1138" t="s">
@@ -13228,9 +12991,6 @@
       <c r="B1138">
         <v>2008</v>
       </c>
-      <c r="C1138" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1139" t="s">
@@ -13239,9 +12999,6 @@
       <c r="B1139">
         <v>2009</v>
       </c>
-      <c r="C1139" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1140" t="s">
@@ -13250,9 +13007,6 @@
       <c r="B1140">
         <v>2010</v>
       </c>
-      <c r="C1140" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1141" t="s">
@@ -13272,9 +13026,6 @@
       <c r="B1142">
         <v>2012</v>
       </c>
-      <c r="C1142" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
@@ -13283,9 +13034,6 @@
       <c r="B1143">
         <v>2013</v>
       </c>
-      <c r="C1143" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
@@ -13305,9 +13053,6 @@
       <c r="B1145">
         <v>2015</v>
       </c>
-      <c r="C1145" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
@@ -13316,9 +13061,6 @@
       <c r="B1146">
         <v>2016</v>
       </c>
-      <c r="C1146" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
@@ -13327,9 +13069,6 @@
       <c r="B1147">
         <v>2017</v>
       </c>
-      <c r="C1147" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
@@ -14174,9 +13913,6 @@
       <c r="B1224">
         <v>2015</v>
       </c>
-      <c r="C1224" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225" t="s">
@@ -14196,9 +13932,6 @@
       <c r="B1226">
         <v>2017</v>
       </c>
-      <c r="C1226" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1227" t="s">
@@ -14207,9 +13940,6 @@
       <c r="B1227">
         <v>1999</v>
       </c>
-      <c r="C1227" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228" t="s">
@@ -14218,9 +13948,6 @@
       <c r="B1228">
         <v>2000</v>
       </c>
-      <c r="C1228" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229" t="s">
@@ -14229,9 +13956,6 @@
       <c r="B1229">
         <v>2001</v>
       </c>
-      <c r="C1229" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230" t="s">
@@ -14240,9 +13964,6 @@
       <c r="B1230">
         <v>2002</v>
       </c>
-      <c r="C1230" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231" t="s">
@@ -14251,9 +13972,6 @@
       <c r="B1231">
         <v>2003</v>
       </c>
-      <c r="C1231" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232" t="s">
@@ -14317,9 +14035,6 @@
       <c r="B1237">
         <v>2009</v>
       </c>
-      <c r="C1237" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1238" t="s">
@@ -14339,9 +14054,6 @@
       <c r="B1239">
         <v>2011</v>
       </c>
-      <c r="C1239" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1240" t="s">
@@ -14350,9 +14062,6 @@
       <c r="B1240">
         <v>2012</v>
       </c>
-      <c r="C1240" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1241" t="s">
@@ -14372,9 +14081,6 @@
       <c r="B1242">
         <v>2014</v>
       </c>
-      <c r="C1242" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1243" t="s">
@@ -14383,9 +14089,6 @@
       <c r="B1243">
         <v>2015</v>
       </c>
-      <c r="C1243" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1244" t="s">
@@ -14394,9 +14097,6 @@
       <c r="B1244">
         <v>2016</v>
       </c>
-      <c r="C1244" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1245" t="s">
@@ -14405,9 +14105,6 @@
       <c r="B1245">
         <v>2017</v>
       </c>
-      <c r="C1245" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1246" t="s">
@@ -14592,9 +14289,6 @@
       <c r="B1262">
         <v>2015</v>
       </c>
-      <c r="C1262" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
@@ -14603,9 +14297,6 @@
       <c r="B1263">
         <v>2016</v>
       </c>
-      <c r="C1263" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
@@ -14614,9 +14305,6 @@
       <c r="B1264">
         <v>2017</v>
       </c>
-      <c r="C1264" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
@@ -14625,9 +14313,6 @@
       <c r="B1265">
         <v>1999</v>
       </c>
-      <c r="C1265" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
@@ -14647,9 +14332,6 @@
       <c r="B1267">
         <v>2001</v>
       </c>
-      <c r="C1267" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
@@ -14658,9 +14340,6 @@
       <c r="B1268">
         <v>2002</v>
       </c>
-      <c r="C1268" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
@@ -14691,9 +14370,6 @@
       <c r="B1271">
         <v>2005</v>
       </c>
-      <c r="C1271" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
@@ -14801,9 +14477,6 @@
       <c r="B1281">
         <v>2015</v>
       </c>
-      <c r="C1281" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1282" t="s">
@@ -14823,9 +14496,6 @@
       <c r="B1283">
         <v>2017</v>
       </c>
-      <c r="C1283" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1284" t="s">
@@ -14922,9 +14592,6 @@
       <c r="B1292">
         <v>2007</v>
       </c>
-      <c r="C1292" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1293" t="s">
@@ -15010,9 +14677,6 @@
       <c r="B1300">
         <v>2015</v>
       </c>
-      <c r="C1300" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
@@ -15021,9 +14685,6 @@
       <c r="B1301">
         <v>2016</v>
       </c>
-      <c r="C1301" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
@@ -15032,9 +14693,6 @@
       <c r="B1302">
         <v>2017</v>
       </c>
-      <c r="C1302" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
@@ -15065,9 +14723,6 @@
       <c r="B1305">
         <v>2001</v>
       </c>
-      <c r="C1305" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
@@ -15219,9 +14874,6 @@
       <c r="B1319">
         <v>2015</v>
       </c>
-      <c r="C1319" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
@@ -15241,9 +14893,6 @@
       <c r="B1321">
         <v>2017</v>
       </c>
-      <c r="C1321" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
@@ -15274,9 +14923,6 @@
       <c r="B1324">
         <v>2001</v>
       </c>
-      <c r="C1324" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
@@ -15307,9 +14953,6 @@
       <c r="B1327">
         <v>2004</v>
       </c>
-      <c r="C1327" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
@@ -15439,9 +15082,6 @@
       <c r="B1339">
         <v>2016</v>
       </c>
-      <c r="C1339" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
@@ -15450,9 +15090,6 @@
       <c r="B1340">
         <v>2017</v>
       </c>
-      <c r="C1340" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
@@ -15659,9 +15296,6 @@
       <c r="B1359">
         <v>2017</v>
       </c>
-      <c r="C1359" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
@@ -15868,9 +15502,6 @@
       <c r="B1378">
         <v>2017</v>
       </c>
-      <c r="C1378" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
@@ -16341,9 +15972,6 @@
       <c r="B1421">
         <v>2001</v>
       </c>
-      <c r="C1421" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1422" t="s">
@@ -16473,9 +16101,6 @@
       <c r="B1433">
         <v>2013</v>
       </c>
-      <c r="C1433" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1434" t="s">
@@ -16495,9 +16120,6 @@
       <c r="B1435">
         <v>2015</v>
       </c>
-      <c r="C1435" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1436" t="s">
@@ -16517,9 +16139,6 @@
       <c r="B1437">
         <v>2017</v>
       </c>
-      <c r="C1437" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1438" t="s">
@@ -16726,9 +16345,6 @@
       <c r="B1456">
         <v>2017</v>
       </c>
-      <c r="C1456" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
@@ -16737,9 +16353,6 @@
       <c r="B1457">
         <v>1999</v>
       </c>
-      <c r="C1457" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
@@ -16748,9 +16361,6 @@
       <c r="B1458">
         <v>2000</v>
       </c>
-      <c r="C1458" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
@@ -16759,9 +16369,6 @@
       <c r="B1459">
         <v>2001</v>
       </c>
-      <c r="C1459" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
@@ -16770,9 +16377,6 @@
       <c r="B1460">
         <v>2002</v>
       </c>
-      <c r="C1460" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
@@ -16792,9 +16396,6 @@
       <c r="B1462">
         <v>2004</v>
       </c>
-      <c r="C1462" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
@@ -16803,9 +16404,6 @@
       <c r="B1463">
         <v>2005</v>
       </c>
-      <c r="C1463" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
@@ -16814,9 +16412,6 @@
       <c r="B1464">
         <v>2006</v>
       </c>
-      <c r="C1464" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
@@ -16847,9 +16442,6 @@
       <c r="B1467">
         <v>2009</v>
       </c>
-      <c r="C1467" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
@@ -16858,9 +16450,6 @@
       <c r="B1468">
         <v>2010</v>
       </c>
-      <c r="C1468" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
@@ -16869,9 +16458,6 @@
       <c r="B1469">
         <v>2011</v>
       </c>
-      <c r="C1469" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
@@ -16880,9 +16466,6 @@
       <c r="B1470">
         <v>2012</v>
       </c>
-      <c r="C1470" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
@@ -16891,9 +16474,6 @@
       <c r="B1471">
         <v>2013</v>
       </c>
-      <c r="C1471" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
@@ -16902,9 +16482,6 @@
       <c r="B1472">
         <v>2014</v>
       </c>
-      <c r="C1472" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
@@ -16913,9 +16490,6 @@
       <c r="B1473">
         <v>2015</v>
       </c>
-      <c r="C1473" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1474" t="s">
@@ -16924,9 +16498,6 @@
       <c r="B1474">
         <v>2016</v>
       </c>
-      <c r="C1474" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1475" t="s">
@@ -16935,9 +16506,6 @@
       <c r="B1475">
         <v>2017</v>
       </c>
-      <c r="C1475" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1476" t="s">
@@ -17122,9 +16690,6 @@
       <c r="B1492">
         <v>2015</v>
       </c>
-      <c r="C1492" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1493" t="s">
@@ -17144,9 +16709,6 @@
       <c r="B1494">
         <v>2017</v>
       </c>
-      <c r="C1494" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1495" t="s">
@@ -17166,9 +16728,6 @@
       <c r="B1496">
         <v>2000</v>
       </c>
-      <c r="C1496" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1497" t="s">
@@ -17188,9 +16747,6 @@
       <c r="B1498">
         <v>2002</v>
       </c>
-      <c r="C1498" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1499" t="s">
@@ -17199,9 +16755,6 @@
       <c r="B1499">
         <v>2003</v>
       </c>
-      <c r="C1499" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1500" t="s">
@@ -17221,9 +16774,6 @@
       <c r="B1501">
         <v>2005</v>
       </c>
-      <c r="C1501" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1502" t="s">
@@ -17243,9 +16793,6 @@
       <c r="B1503">
         <v>2007</v>
       </c>
-      <c r="C1503" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1504" t="s">
@@ -17276,9 +16823,6 @@
       <c r="B1506">
         <v>2010</v>
       </c>
-      <c r="C1506" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1507" t="s">
@@ -17298,9 +16842,6 @@
       <c r="B1508">
         <v>2012</v>
       </c>
-      <c r="C1508" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1509" t="s">
@@ -17320,9 +16861,6 @@
       <c r="B1510">
         <v>2014</v>
       </c>
-      <c r="C1510" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1511" t="s">
@@ -17331,9 +16869,6 @@
       <c r="B1511">
         <v>2015</v>
       </c>
-      <c r="C1511" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1512" t="s">
@@ -17342,9 +16877,6 @@
       <c r="B1512">
         <v>2016</v>
       </c>
-      <c r="C1512" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1513" t="s">
@@ -17353,9 +16885,6 @@
       <c r="B1513">
         <v>2017</v>
       </c>
-      <c r="C1513" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1514" t="s">
@@ -17364,9 +16893,6 @@
       <c r="B1514">
         <v>1999</v>
       </c>
-      <c r="C1514" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1515" t="s">
@@ -17375,9 +16901,6 @@
       <c r="B1515">
         <v>2000</v>
       </c>
-      <c r="C1515" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1516" t="s">
@@ -17386,9 +16909,6 @@
       <c r="B1516">
         <v>2001</v>
       </c>
-      <c r="C1516" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1517" t="s">
@@ -17397,9 +16917,6 @@
       <c r="B1517">
         <v>2002</v>
       </c>
-      <c r="C1517" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1518" t="s">
@@ -17441,9 +16958,6 @@
       <c r="B1521">
         <v>2006</v>
       </c>
-      <c r="C1521" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1522" t="s">
@@ -17474,9 +16988,6 @@
       <c r="B1524">
         <v>2009</v>
       </c>
-      <c r="C1524" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1525" t="s">
@@ -17518,9 +17029,6 @@
       <c r="B1528">
         <v>2013</v>
       </c>
-      <c r="C1528" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
@@ -17529,9 +17037,6 @@
       <c r="B1529">
         <v>2014</v>
       </c>
-      <c r="C1529" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
@@ -17540,9 +17045,6 @@
       <c r="B1530">
         <v>2015</v>
       </c>
-      <c r="C1530" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
@@ -17551,9 +17053,6 @@
       <c r="B1531">
         <v>2016</v>
       </c>
-      <c r="C1531" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
@@ -17562,9 +17061,6 @@
       <c r="B1532">
         <v>2017</v>
       </c>
-      <c r="C1532" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1533" t="s">
@@ -17749,9 +17245,6 @@
       <c r="B1549">
         <v>2015</v>
       </c>
-      <c r="C1549" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1550" t="s">
@@ -17771,9 +17264,6 @@
       <c r="B1551">
         <v>2017</v>
       </c>
-      <c r="C1551" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
@@ -17793,9 +17283,6 @@
       <c r="B1553">
         <v>2000</v>
       </c>
-      <c r="C1553" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
@@ -17870,9 +17357,6 @@
       <c r="B1560">
         <v>2007</v>
       </c>
-      <c r="C1560" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
@@ -17892,9 +17376,6 @@
       <c r="B1562">
         <v>2009</v>
       </c>
-      <c r="C1562" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
@@ -17958,9 +17439,6 @@
       <c r="B1568">
         <v>2015</v>
       </c>
-      <c r="C1568" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
@@ -17969,9 +17447,6 @@
       <c r="B1569">
         <v>2016</v>
       </c>
-      <c r="C1569" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
@@ -17980,9 +17455,6 @@
       <c r="B1570">
         <v>2017</v>
       </c>
-      <c r="C1570" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
@@ -18002,9 +17474,6 @@
       <c r="B1572">
         <v>2000</v>
       </c>
-      <c r="C1572" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
@@ -18013,9 +17482,6 @@
       <c r="B1573">
         <v>2001</v>
       </c>
-      <c r="C1573" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
@@ -18464,9 +17930,6 @@
       <c r="B1614">
         <v>2002</v>
       </c>
-      <c r="C1614" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1615" t="s">
@@ -18607,9 +18070,6 @@
       <c r="B1627">
         <v>2015</v>
       </c>
-      <c r="C1627" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1628" t="s">
@@ -18629,9 +18089,6 @@
       <c r="B1629">
         <v>2017</v>
       </c>
-      <c r="C1629" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1630" t="s">
@@ -19443,9 +18900,6 @@
       <c r="B1703">
         <v>2012</v>
       </c>
-      <c r="C1703" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1704" t="s">
@@ -19476,9 +18930,6 @@
       <c r="B1706">
         <v>2015</v>
       </c>
-      <c r="C1706" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1707" t="s">
@@ -19487,9 +18938,6 @@
       <c r="B1707">
         <v>2016</v>
       </c>
-      <c r="C1707" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1708" t="s">
@@ -19498,9 +18946,6 @@
       <c r="B1708">
         <v>2017</v>
       </c>
-      <c r="C1708" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1709" t="s">
@@ -20609,9 +20054,6 @@
       <c r="B1809">
         <v>1999</v>
       </c>
-      <c r="C1809" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1810" t="s">
@@ -20620,9 +20062,6 @@
       <c r="B1810">
         <v>2000</v>
       </c>
-      <c r="C1810" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1811" t="s">
@@ -20763,9 +20202,6 @@
       <c r="B1823">
         <v>2013</v>
       </c>
-      <c r="C1823" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1824" t="s">
@@ -20774,9 +20210,6 @@
       <c r="B1824">
         <v>2014</v>
       </c>
-      <c r="C1824" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1825" t="s">
@@ -20785,9 +20218,6 @@
       <c r="B1825">
         <v>2015</v>
       </c>
-      <c r="C1825" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1826" t="s">
@@ -20796,9 +20226,6 @@
       <c r="B1826">
         <v>2016</v>
       </c>
-      <c r="C1826" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1827" t="s">
@@ -20807,9 +20234,6 @@
       <c r="B1827">
         <v>2017</v>
       </c>
-      <c r="C1827" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1828" t="s">
@@ -20994,9 +20418,6 @@
       <c r="B1844">
         <v>2015</v>
       </c>
-      <c r="C1844" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1845" t="s">
@@ -21016,9 +20437,6 @@
       <c r="B1846">
         <v>2017</v>
       </c>
-      <c r="C1846" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1847" t="s">
@@ -21203,9 +20621,6 @@
       <c r="B1863">
         <v>2015</v>
       </c>
-      <c r="C1863" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1864" t="s">
@@ -21225,9 +20640,6 @@
       <c r="B1865">
         <v>2017</v>
       </c>
-      <c r="C1865" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1866" t="s">
@@ -21434,9 +20846,6 @@
       <c r="B1884">
         <v>2017</v>
       </c>
-      <c r="C1884" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1885" t="s">
@@ -21621,9 +21030,6 @@
       <c r="B1901">
         <v>2015</v>
       </c>
-      <c r="C1901" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1902" t="s">
@@ -21632,9 +21038,6 @@
       <c r="B1902">
         <v>2016</v>
       </c>
-      <c r="C1902" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1903" t="s">
@@ -21643,9 +21046,6 @@
       <c r="B1903">
         <v>2017</v>
       </c>
-      <c r="C1903" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1904" t="s">
@@ -21676,9 +21076,6 @@
       <c r="B1906">
         <v>2001</v>
       </c>
-      <c r="C1906" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1907" t="s">
@@ -21687,9 +21084,6 @@
       <c r="B1907">
         <v>2002</v>
       </c>
-      <c r="C1907" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1908" t="s">
@@ -21830,9 +21224,6 @@
       <c r="B1920">
         <v>2015</v>
       </c>
-      <c r="C1920" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1921" t="s">
@@ -21852,9 +21243,6 @@
       <c r="B1922">
         <v>2017</v>
       </c>
-      <c r="C1922" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1923" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1923" t="s">
@@ -22039,9 +21427,6 @@
       <c r="B1939">
         <v>2015</v>
       </c>
-      <c r="C1939" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1940" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1940" t="s">
@@ -22050,9 +21435,6 @@
       <c r="B1940">
         <v>2016</v>
       </c>
-      <c r="C1940" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1941" t="s">
@@ -22061,9 +21443,6 @@
       <c r="B1941">
         <v>2017</v>
       </c>
-      <c r="C1941" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1942" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1942" t="s">
@@ -22105,9 +21484,6 @@
       <c r="B1945">
         <v>2002</v>
       </c>
-      <c r="C1945" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1946" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1946" t="s">
@@ -22116,9 +21492,6 @@
       <c r="B1946">
         <v>2003</v>
       </c>
-      <c r="C1946" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1947" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1947" t="s">
@@ -22127,9 +21500,6 @@
       <c r="B1947">
         <v>2004</v>
       </c>
-      <c r="C1947" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1948" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1948" t="s">
@@ -22149,9 +21519,6 @@
       <c r="B1949">
         <v>2006</v>
       </c>
-      <c r="C1949" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1950" t="s">
@@ -22160,9 +21527,6 @@
       <c r="B1950">
         <v>2007</v>
       </c>
-      <c r="C1950" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1951" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1951" t="s">
@@ -22171,9 +21535,6 @@
       <c r="B1951">
         <v>2008</v>
       </c>
-      <c r="C1951" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1952" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1952" t="s">
@@ -22182,9 +21543,6 @@
       <c r="B1952">
         <v>2009</v>
       </c>
-      <c r="C1952" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1953" t="s">
@@ -22193,9 +21551,6 @@
       <c r="B1953">
         <v>2010</v>
       </c>
-      <c r="C1953" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1954" t="s">
@@ -22204,9 +21559,6 @@
       <c r="B1954">
         <v>2011</v>
       </c>
-      <c r="C1954" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1955" t="s">
@@ -22215,9 +21567,6 @@
       <c r="B1955">
         <v>2012</v>
       </c>
-      <c r="C1955" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1956" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1956" t="s">
@@ -22248,9 +21597,6 @@
       <c r="B1958">
         <v>2015</v>
       </c>
-      <c r="C1958" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1959" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1959" t="s">
@@ -22259,9 +21605,6 @@
       <c r="B1959">
         <v>2016</v>
       </c>
-      <c r="C1959" s="2">
-        <v>0</v>
-      </c>
     </row>
     <row r="1960" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1960" t="s">
@@ -22269,9 +21612,6 @@
       </c>
       <c r="B1960">
         <v>2017</v>
-      </c>
-      <c r="C1960" s="2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
